--- a/Data/EC/NIT-9010014701.xlsx
+++ b/Data/EC/NIT-9010014701.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA6E1995-9155-436F-944F-FE78D433580A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{647BEC38-3977-4020-96A3-FF4A50281388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{36C43D5D-FE4F-4385-8CDF-E40EF8DCBD35}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E28AAAFA-88FF-463C-A164-41AA79230071}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="70">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,145 +71,148 @@
     <t>ANAIS RODRIGUEZ GONZALEZ</t>
   </si>
   <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
     <t>1808</t>
   </si>
   <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
     <t>45565498</t>
   </si>
   <si>
     <t>KAREN SOFIA CASSIANI BALLESTEROS</t>
   </si>
   <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
   </si>
   <si>
     <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -253,7 +256,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,7 +626,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ECF32CC-FD0D-3B74-CC79-717FCAD7C77C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0DA8171-A3B8-D8CE-712A-C7E3A0773199}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -974,32 +977,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8623CAC-E422-4A2D-AAAE-3A24C9FDE0D6}">
-  <dimension ref="B2:J73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CEAFF5-44CF-475F-B102-2568051FDAA0}">
+  <dimension ref="B2:J74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1008,7 +1011,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1019,7 +1022,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1030,7 +1033,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1041,10 +1044,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1057,8 +1060,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1073,15 +1076,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1698345</v>
+        <v>1738345</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1089,27 +1092,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1129,16 +1132,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>63</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1152,16 +1155,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1178,13 +1181,13 @@
         <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1201,13 +1204,13 @@
         <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1224,13 +1227,13 @@
         <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1247,13 +1250,13 @@
         <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1270,13 +1273,13 @@
         <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1293,13 +1296,13 @@
         <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1316,13 +1319,13 @@
         <v>31249</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1339,13 +1342,13 @@
         <v>31249</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1362,13 +1365,13 @@
         <v>31249</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1385,13 +1388,13 @@
         <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1408,13 +1411,13 @@
         <v>31249</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1431,13 +1434,13 @@
         <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1454,13 +1457,13 @@
         <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1477,13 +1480,13 @@
         <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1500,13 +1503,13 @@
         <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1523,13 +1526,13 @@
         <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1546,13 +1549,13 @@
         <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1569,13 +1572,13 @@
         <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1592,13 +1595,13 @@
         <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1615,13 +1618,13 @@
         <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1638,13 +1641,13 @@
         <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1661,13 +1664,13 @@
         <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1684,13 +1687,13 @@
         <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1707,13 +1710,13 @@
         <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1730,13 +1733,13 @@
         <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1753,59 +1756,59 @@
         <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F43" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="F44" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1822,13 +1825,13 @@
         <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1845,59 +1848,59 @@
         <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1908,53 +1911,53 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18">
         <v>35112</v>
@@ -1966,18 +1969,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
         <v>35112</v>
@@ -1989,41 +1992,41 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G53" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F54" s="18">
         <v>35112</v>
@@ -2035,41 +2038,41 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G55" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F56" s="18">
         <v>35112</v>
@@ -2081,18 +2084,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F57" s="18">
         <v>35112</v>
@@ -2104,18 +2107,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
@@ -2127,18 +2130,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F59" s="18">
         <v>35112</v>
@@ -2150,18 +2153,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2173,18 +2176,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
         <v>35112</v>
@@ -2196,18 +2199,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F62" s="18">
         <v>35112</v>
@@ -2219,18 +2222,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F63" s="18">
         <v>35112</v>
@@ -2242,18 +2245,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F64" s="18">
         <v>35112</v>
@@ -2265,18 +2268,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="F65" s="18">
         <v>35112</v>
@@ -2288,18 +2291,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F66" s="18">
         <v>35112</v>
@@ -2311,43 +2314,55 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="24">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="18">
         <v>35112</v>
       </c>
-      <c r="G67" s="24">
+      <c r="G67" s="18">
         <v>877803</v>
       </c>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="32"/>
-      <c r="H72" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="2:10">
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="24">
+        <v>35112</v>
+      </c>
+      <c r="G68" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="26"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C73" s="32"/>
       <c r="H73" s="1" t="s">
@@ -2356,12 +2371,23 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="32"/>
+      <c r="H74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B74:C74"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="H74:J74"/>
     <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H72:J72"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010014701.xlsx
+++ b/Data/EC/NIT-9010014701.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{647BEC38-3977-4020-96A3-FF4A50281388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42DA3931-426A-4A25-A2BF-B6B6D265F9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E28AAAFA-88FF-463C-A164-41AA79230071}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF971B57-9D0D-4992-8ACF-C0E4C16A5372}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="69">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,148 +71,145 @@
     <t>ANAIS RODRIGUEZ GONZALEZ</t>
   </si>
   <si>
-    <t>2207</t>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>45565498</t>
+  </si>
+  <si>
+    <t>KAREN SOFIA CASSIANI BALLESTEROS</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
   </si>
   <si>
     <t>2104</t>
   </si>
   <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>45565498</t>
-  </si>
-  <si>
-    <t>KAREN SOFIA CASSIANI BALLESTEROS</t>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
   </si>
   <si>
     <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -256,7 +253,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,7 +308,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -324,9 +323,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -526,23 +523,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,10 +567,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,7 +623,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0DA8171-A3B8-D8CE-712A-C7E3A0773199}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE6E67B-B6B7-1AE6-B497-DBC81FCFBA30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -977,32 +974,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CEAFF5-44CF-475F-B102-2568051FDAA0}">
-  <dimension ref="B2:J74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA49386-9DA8-4ACA-A8F0-8233C821EC2F}">
+  <dimension ref="B2:J73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1011,7 +1008,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1022,7 +1019,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1033,7 +1030,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1044,10 +1041,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1060,8 +1057,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1076,15 +1073,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1738345</v>
+        <v>1698345</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1092,27 +1089,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1132,16 +1129,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1155,16 +1152,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1181,13 +1178,13 @@
         <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1204,13 +1201,13 @@
         <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1227,13 +1224,13 @@
         <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1250,13 +1247,13 @@
         <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1273,13 +1270,13 @@
         <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1296,13 +1293,13 @@
         <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1319,13 +1316,13 @@
         <v>31249</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1342,13 +1339,13 @@
         <v>31249</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1365,13 +1362,13 @@
         <v>31249</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1388,13 +1385,13 @@
         <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1411,13 +1408,13 @@
         <v>31249</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1434,13 +1431,13 @@
         <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1457,13 +1454,13 @@
         <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1480,13 +1477,13 @@
         <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1503,13 +1500,13 @@
         <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1526,13 +1523,13 @@
         <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1549,13 +1546,13 @@
         <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1572,13 +1569,13 @@
         <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1595,13 +1592,13 @@
         <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1618,13 +1615,13 @@
         <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1641,13 +1638,13 @@
         <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1664,13 +1661,13 @@
         <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1687,13 +1684,13 @@
         <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1710,13 +1707,13 @@
         <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1733,13 +1730,13 @@
         <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1756,36 +1753,36 @@
         <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G43" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1796,42 +1793,42 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
         <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G45" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1848,36 +1845,36 @@
         <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G47" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1888,76 +1885,76 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F48" s="18">
         <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G49" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F50" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F51" s="18">
         <v>35112</v>
@@ -1969,41 +1966,41 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F52" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -2015,41 +2012,41 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="F54" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="F55" s="18">
         <v>35112</v>
@@ -2061,18 +2058,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D56" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="F56" s="18">
         <v>35112</v>
@@ -2084,18 +2081,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F57" s="18">
         <v>35112</v>
@@ -2107,18 +2104,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
@@ -2130,18 +2127,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F59" s="18">
         <v>35112</v>
@@ -2153,18 +2150,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2176,18 +2173,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F61" s="18">
         <v>35112</v>
@@ -2199,18 +2196,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F62" s="18">
         <v>35112</v>
@@ -2222,18 +2219,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F63" s="18">
         <v>35112</v>
@@ -2245,18 +2242,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F64" s="18">
         <v>35112</v>
@@ -2268,18 +2265,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F65" s="18">
         <v>35112</v>
@@ -2291,18 +2288,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F66" s="18">
         <v>35112</v>
@@ -2314,55 +2311,43 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" s="18">
+    <row r="67" spans="2:10">
+      <c r="B67" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="24">
         <v>35112</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="24">
         <v>877803</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="24">
-        <v>35112</v>
-      </c>
-      <c r="G68" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="26"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="32"/>
+      <c r="H72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="2:10">
       <c r="B73" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C73" s="32"/>
       <c r="H73" s="1" t="s">
@@ -2371,23 +2356,12 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="32"/>
-      <c r="H74" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B74:C74"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H72:J72"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010014701.xlsx
+++ b/Data/EC/NIT-9010014701.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42DA3931-426A-4A25-A2BF-B6B6D265F9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5AB5D7A-6418-4697-9AC0-D152BCD6A5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF971B57-9D0D-4992-8ACF-C0E4C16A5372}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1C3020B6-3A9B-4C74-B428-4B7BFF2BE822}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="76">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -210,6 +210,27 @@
   </si>
   <si>
     <t>2204</t>
+  </si>
+  <si>
+    <t>1047446673</t>
+  </si>
+  <si>
+    <t>ARNOLD MEÑACA HERRERA</t>
+  </si>
+  <si>
+    <t>2509</t>
+  </si>
+  <si>
+    <t>73180911</t>
+  </si>
+  <si>
+    <t>ALEX JOSE VANEGAS CASTAÑO</t>
+  </si>
+  <si>
+    <t>1007257019</t>
+  </si>
+  <si>
+    <t>DIEGO ANDRES DE LA ROSA JIMENEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -253,7 +274,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,9 +329,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -323,7 +342,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -517,29 +538,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,19 +579,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,7 +650,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE6E67B-B6B7-1AE6-B497-DBC81FCFBA30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D368C6C6-67B9-429A-0F4A-A274A908DA79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -974,80 +1001,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA49386-9DA8-4ACA-A8F0-8233C821EC2F}">
-  <dimension ref="B2:J73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08498AC-6D1F-4A9F-A03D-1F4C5AAEFA09}">
+  <dimension ref="B2:J76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1057,13 +1084,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9010014701</v>
       </c>
@@ -1073,15 +1100,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>1698345</v>
+        <v>1930693</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1089,27 +1116,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F13" s="5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1129,16 +1156,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1148,20 +1175,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G16" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="F16" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G16" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1171,20 +1198,20 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="F17" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1194,20 +1221,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="F18" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1217,20 +1244,20 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="F19" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1240,20 +1267,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="F20" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1263,20 +1290,20 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="F21" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1286,20 +1313,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="F22" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1309,20 +1336,20 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="F23" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1332,20 +1359,20 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="F24" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1355,20 +1382,20 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="F25" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1378,20 +1405,20 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="F26" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1401,20 +1428,20 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="F27" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1424,20 +1451,20 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="F28" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1447,20 +1474,20 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="F29" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1470,20 +1497,20 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="F30" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1493,20 +1520,20 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="F31" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1516,20 +1543,20 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="F32" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1539,20 +1566,20 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="F33" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1562,20 +1589,20 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="F34" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1585,20 +1612,20 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="F35" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1608,20 +1635,20 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="F36" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1631,20 +1658,20 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="F37" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1654,20 +1681,20 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="F38" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1677,20 +1704,20 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="F39" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1700,20 +1727,20 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="F40" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1723,20 +1750,20 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="F41" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1746,20 +1773,20 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="F42" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1769,20 +1796,20 @@
       <c r="D43" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>35112</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>877803</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1792,20 +1819,20 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G44" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="F44" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G44" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1815,20 +1842,20 @@
       <c r="D45" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>35112</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="19">
         <v>877803</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1838,20 +1865,20 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G46" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="F46" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G46" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1861,20 +1888,20 @@
       <c r="D47" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>35112</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="19">
         <v>877803</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1884,20 +1911,20 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G48" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="F48" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G48" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -1907,20 +1934,20 @@
       <c r="D49" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>35112</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="19">
         <v>877803</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1930,20 +1957,20 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G50" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="F50" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G50" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1953,20 +1980,20 @@
       <c r="D51" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>35112</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="19">
         <v>877803</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -1976,20 +2003,20 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F52" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G52" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="F52" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G52" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -1999,20 +2026,20 @@
       <c r="D53" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="19">
         <v>35112</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="19">
         <v>877803</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2022,20 +2049,20 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F54" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G54" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="F54" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G54" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2045,20 +2072,20 @@
       <c r="D55" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="19">
         <v>35112</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="19">
         <v>877803</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2068,20 +2095,20 @@
       <c r="D56" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="19">
         <v>35112</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="19">
         <v>877803</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2091,20 +2118,20 @@
       <c r="D57" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>35112</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="19">
         <v>877803</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2114,20 +2141,20 @@
       <c r="D58" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="19">
         <v>35112</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="19">
         <v>877803</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2137,20 +2164,20 @@
       <c r="D59" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="19">
         <v>35112</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="19">
         <v>877803</v>
       </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2160,20 +2187,20 @@
       <c r="D60" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="19">
         <v>35112</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="19">
         <v>877803</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2183,20 +2210,20 @@
       <c r="D61" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="19">
         <v>35112</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="19">
         <v>877803</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2206,20 +2233,20 @@
       <c r="D62" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="19">
         <v>35112</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="19">
         <v>877803</v>
       </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2229,20 +2256,20 @@
       <c r="D63" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="19">
         <v>35112</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="19">
         <v>877803</v>
       </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10">
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2252,20 +2279,20 @@
       <c r="D64" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="19">
         <v>35112</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="19">
         <v>877803</v>
       </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10">
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2275,20 +2302,20 @@
       <c r="D65" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="19">
         <v>35112</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="19">
         <v>877803</v>
       </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2298,70 +2325,139 @@
       <c r="D66" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="19">
         <v>35112</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="19">
         <v>877803</v>
       </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="22" t="s">
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F67" s="24">
+      <c r="F67" s="19">
         <v>35112</v>
       </c>
-      <c r="G67" s="24">
+      <c r="G67" s="19">
         <v>877803</v>
       </c>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="32"/>
-      <c r="H72" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="32"/>
-      <c r="H73" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68" s="19">
+        <v>109408</v>
+      </c>
+      <c r="G68" s="19">
+        <v>2735200</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69" s="19">
+        <v>56940</v>
+      </c>
+      <c r="G69" s="19">
+        <v>1423500</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70" s="26">
+        <v>66000</v>
+      </c>
+      <c r="G70" s="26">
+        <v>1650000</v>
+      </c>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="28"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="34"/>
+      <c r="H75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="34"/>
+      <c r="H76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H75:J75"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
